--- a/Code/Results/Cases/Case_1_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9934533397373726</v>
+        <v>1.020260089553636</v>
       </c>
       <c r="D2">
-        <v>1.029003908259039</v>
+        <v>1.031669768852508</v>
       </c>
       <c r="E2">
-        <v>1.000840644733978</v>
+        <v>1.021293454059137</v>
       </c>
       <c r="F2">
-        <v>1.003061619858725</v>
+        <v>1.032856848201286</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045722103446697</v>
+        <v>1.033956264058147</v>
       </c>
       <c r="J2">
-        <v>1.015831639141477</v>
+        <v>1.025458205927374</v>
       </c>
       <c r="K2">
-        <v>1.040073436182425</v>
+        <v>1.034477217507755</v>
       </c>
       <c r="L2">
-        <v>1.012288280450846</v>
+        <v>1.024131211497256</v>
       </c>
       <c r="M2">
-        <v>1.014478465610189</v>
+        <v>1.035660871638634</v>
       </c>
       <c r="N2">
-        <v>1.009284903635344</v>
+        <v>1.012567783118517</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9973461139980692</v>
+        <v>1.021078495310792</v>
       </c>
       <c r="D3">
-        <v>1.031336704832868</v>
+        <v>1.032153822579851</v>
       </c>
       <c r="E3">
-        <v>1.003893198378971</v>
+        <v>1.021984120154224</v>
       </c>
       <c r="F3">
-        <v>1.007869185252865</v>
+        <v>1.033937492779029</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046866174480742</v>
+        <v>1.034131683770662</v>
       </c>
       <c r="J3">
-        <v>1.017909389011001</v>
+        <v>1.025914406506355</v>
       </c>
       <c r="K3">
-        <v>1.041583732315826</v>
+        <v>1.034770753390998</v>
       </c>
       <c r="L3">
-        <v>1.014476506193921</v>
+        <v>1.02462861669534</v>
       </c>
       <c r="M3">
-        <v>1.018402358870769</v>
+        <v>1.036549649273495</v>
       </c>
       <c r="N3">
-        <v>1.009979502596121</v>
+        <v>1.012719492610585</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9998165875907127</v>
+        <v>1.021608504535737</v>
       </c>
       <c r="D4">
-        <v>1.03281847307812</v>
+        <v>1.032467076624351</v>
       </c>
       <c r="E4">
-        <v>1.005836377309369</v>
+        <v>1.02243181263032</v>
       </c>
       <c r="F4">
-        <v>1.010920209581022</v>
+        <v>1.034637389854166</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047581142752213</v>
+        <v>1.034243908230484</v>
       </c>
       <c r="J4">
-        <v>1.019224986240347</v>
+        <v>1.026209401211766</v>
       </c>
       <c r="K4">
-        <v>1.042536308103254</v>
+        <v>1.034960008678433</v>
       </c>
       <c r="L4">
-        <v>1.01586486908882</v>
+        <v>1.024950581186568</v>
       </c>
       <c r="M4">
-        <v>1.02088859998226</v>
+        <v>1.037124805344475</v>
       </c>
       <c r="N4">
-        <v>1.010419224179869</v>
+        <v>1.012817563630214</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00084395493702</v>
+        <v>1.021831425778745</v>
       </c>
       <c r="D5">
-        <v>1.033434923889522</v>
+        <v>1.032598776161908</v>
       </c>
       <c r="E5">
-        <v>1.006645853727687</v>
+        <v>1.022620208937197</v>
       </c>
       <c r="F5">
-        <v>1.012189052333292</v>
+        <v>1.03493178081192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047875764981426</v>
+        <v>1.034290779278061</v>
       </c>
       <c r="J5">
-        <v>1.019771344036971</v>
+        <v>1.026333368642177</v>
       </c>
       <c r="K5">
-        <v>1.04293097808797</v>
+        <v>1.035039407144898</v>
       </c>
       <c r="L5">
-        <v>1.016442120633384</v>
+        <v>1.025085960233548</v>
       </c>
       <c r="M5">
-        <v>1.021921590811344</v>
+        <v>1.037366613843545</v>
       </c>
       <c r="N5">
-        <v>1.010601814288536</v>
+        <v>1.012858769519752</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001015806948838</v>
+        <v>1.021868861374251</v>
       </c>
       <c r="D6">
-        <v>1.03353805263516</v>
+        <v>1.032620889483885</v>
       </c>
       <c r="E6">
-        <v>1.006781338870079</v>
+        <v>1.022651852388957</v>
       </c>
       <c r="F6">
-        <v>1.012401301181833</v>
+        <v>1.034981219368441</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047924887561455</v>
+        <v>1.034298631042899</v>
       </c>
       <c r="J6">
-        <v>1.019862691154313</v>
+        <v>1.026354180453955</v>
       </c>
       <c r="K6">
-        <v>1.042996908523727</v>
+        <v>1.03505272881888</v>
       </c>
       <c r="L6">
-        <v>1.016538672624125</v>
+        <v>1.025108692413288</v>
       </c>
       <c r="M6">
-        <v>1.022094329214022</v>
+        <v>1.037407215284688</v>
       </c>
       <c r="N6">
-        <v>1.010632340635035</v>
+        <v>1.012865686800209</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9998303589310494</v>
+        <v>1.021611482808039</v>
       </c>
       <c r="D7">
-        <v>1.032826735410917</v>
+        <v>1.032468836372652</v>
       </c>
       <c r="E7">
-        <v>1.005847222491476</v>
+        <v>1.022434329260647</v>
       </c>
       <c r="F7">
-        <v>1.010937217522383</v>
+        <v>1.034641322915604</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04758510274529</v>
+        <v>1.034244535735358</v>
       </c>
       <c r="J7">
-        <v>1.019232312860918</v>
+        <v>1.026211057861907</v>
       </c>
       <c r="K7">
-        <v>1.042541604312976</v>
+        <v>1.034961070252306</v>
       </c>
       <c r="L7">
-        <v>1.015872607326669</v>
+        <v>1.024952390030578</v>
       </c>
       <c r="M7">
-        <v>1.020902450361941</v>
+        <v>1.03712803635194</v>
       </c>
       <c r="N7">
-        <v>1.010421672794414</v>
+        <v>1.012818114316841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9947791733082257</v>
+        <v>1.020536580425482</v>
       </c>
       <c r="D8">
-        <v>1.029798116293725</v>
+        <v>1.031833347950771</v>
       </c>
       <c r="E8">
-        <v>1.001879043630828</v>
+        <v>1.021526704319336</v>
       </c>
       <c r="F8">
-        <v>1.004699052310734</v>
+        <v>1.033221922457708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04611405979066</v>
+        <v>1.034015813335729</v>
       </c>
       <c r="J8">
-        <v>1.016539912253756</v>
+        <v>1.0256124213307</v>
       </c>
       <c r="K8">
-        <v>1.040589031731857</v>
+        <v>1.03457655985563</v>
       </c>
       <c r="L8">
-        <v>1.013033622095446</v>
+        <v>1.024299288416359</v>
       </c>
       <c r="M8">
-        <v>1.015815745960973</v>
+        <v>1.035961225763057</v>
       </c>
       <c r="N8">
-        <v>1.009521698774148</v>
+        <v>1.012619073525717</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9854900415961726</v>
+        <v>1.018645942673253</v>
       </c>
       <c r="D9">
-        <v>1.024242084907861</v>
+        <v>1.030713912596411</v>
       </c>
       <c r="E9">
-        <v>0.9946303874698901</v>
+        <v>1.019933439354176</v>
       </c>
       <c r="F9">
-        <v>0.9932246080316998</v>
+        <v>1.030725756112145</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043322646320471</v>
+        <v>1.033602976434558</v>
       </c>
       <c r="J9">
-        <v>1.011565798134693</v>
+        <v>1.02455608014577</v>
       </c>
       <c r="K9">
-        <v>1.036953724844467</v>
+        <v>1.033893831247065</v>
       </c>
       <c r="L9">
-        <v>1.007811187814832</v>
+        <v>1.023149334774158</v>
       </c>
       <c r="M9">
-        <v>1.006428576129146</v>
+        <v>1.033905635692423</v>
       </c>
       <c r="N9">
-        <v>1.00785843227795</v>
+        <v>1.012267626299466</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9790102787649747</v>
+        <v>1.017387938515461</v>
       </c>
       <c r="D10">
-        <v>1.020380329066716</v>
+        <v>1.029967981180431</v>
       </c>
       <c r="E10">
-        <v>0.9896095579495646</v>
+        <v>1.018875450858292</v>
       </c>
       <c r="F10">
-        <v>0.9852151239533672</v>
+        <v>1.029065054659025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041319853009101</v>
+        <v>1.033321208931085</v>
       </c>
       <c r="J10">
-        <v>1.008082155704582</v>
+        <v>1.023850927993524</v>
       </c>
       <c r="K10">
-        <v>1.034391108534663</v>
+        <v>1.033435270796361</v>
       </c>
       <c r="L10">
-        <v>1.004168983916347</v>
+        <v>1.022383370303658</v>
       </c>
       <c r="M10">
-        <v>0.9998565554596417</v>
+        <v>1.032535615347312</v>
       </c>
       <c r="N10">
-        <v>1.006693290353411</v>
+        <v>1.012032872215588</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9761301594112055</v>
+        <v>1.016843800330387</v>
       </c>
       <c r="D11">
-        <v>1.01866826055282</v>
+        <v>1.029645092072365</v>
       </c>
       <c r="E11">
-        <v>0.9873869388560935</v>
+        <v>1.0184183437693</v>
       </c>
       <c r="F11">
-        <v>0.9816529187200794</v>
+        <v>1.028346770932678</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040417073410709</v>
+        <v>1.033197658057104</v>
       </c>
       <c r="J11">
-        <v>1.006530807144176</v>
+        <v>1.023545382897388</v>
       </c>
       <c r="K11">
-        <v>1.033246503824642</v>
+        <v>1.033235915319168</v>
       </c>
       <c r="L11">
-        <v>1.002550704539577</v>
+        <v>1.022051873056894</v>
       </c>
       <c r="M11">
-        <v>0.9969293315611962</v>
+        <v>1.03194248010559</v>
       </c>
       <c r="N11">
-        <v>1.006174392593692</v>
+        <v>1.01193111771959</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9750486156500235</v>
+        <v>1.016641772575129</v>
       </c>
       <c r="D12">
-        <v>1.018026101906788</v>
+        <v>1.029525174130285</v>
       </c>
       <c r="E12">
-        <v>0.9865537105269357</v>
+        <v>1.018248707055057</v>
       </c>
       <c r="F12">
-        <v>0.9803148314081872</v>
+        <v>1.028080090919585</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04007622427373</v>
+        <v>1.033151534576688</v>
       </c>
       <c r="J12">
-        <v>1.005947832508784</v>
+        <v>1.023431859381655</v>
       </c>
       <c r="K12">
-        <v>1.032815911363782</v>
+        <v>1.03316174742907</v>
       </c>
       <c r="L12">
-        <v>1.001943135224906</v>
+        <v>1.021928766991058</v>
       </c>
       <c r="M12">
-        <v>0.9958291419318078</v>
+        <v>1.031722177938802</v>
       </c>
       <c r="N12">
-        <v>1.005979395973152</v>
+        <v>1.011893306257583</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9752811512526645</v>
+        <v>1.016685104147182</v>
       </c>
       <c r="D13">
-        <v>1.018164132357707</v>
+        <v>1.029550896117388</v>
       </c>
       <c r="E13">
-        <v>0.9867327928426652</v>
+        <v>1.01828508774678</v>
       </c>
       <c r="F13">
-        <v>0.9806025444977466</v>
+        <v>1.028137289130873</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040149590137556</v>
+        <v>1.033161438669584</v>
       </c>
       <c r="J13">
-        <v>1.006073192140926</v>
+        <v>1.023456211923253</v>
       </c>
       <c r="K13">
-        <v>1.032908523894913</v>
+        <v>1.033177662031951</v>
       </c>
       <c r="L13">
-        <v>1.002073758325061</v>
+        <v>1.021955172429884</v>
       </c>
       <c r="M13">
-        <v>0.9960657304067908</v>
+        <v>1.031769432825297</v>
       </c>
       <c r="N13">
-        <v>1.006021327024187</v>
+        <v>1.011901417631363</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9760410015728094</v>
+        <v>1.016827098821582</v>
       </c>
       <c r="D14">
-        <v>1.018615307758244</v>
+        <v>1.029635179251483</v>
       </c>
       <c r="E14">
-        <v>0.9873182220848897</v>
+        <v>1.018404318410682</v>
       </c>
       <c r="F14">
-        <v>0.9815426212864331</v>
+        <v>1.02832472457563</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040389012301387</v>
+        <v>1.033193850187664</v>
       </c>
       <c r="J14">
-        <v>1.006482757397472</v>
+        <v>1.023535999623687</v>
       </c>
       <c r="K14">
-        <v>1.033211022881205</v>
+        <v>1.033229786986614</v>
       </c>
       <c r="L14">
-        <v>1.00250061631193</v>
+        <v>1.022041696518213</v>
       </c>
       <c r="M14">
-        <v>0.9968386563458299</v>
+        <v>1.031924269556072</v>
       </c>
       <c r="N14">
-        <v>1.006158320675901</v>
+        <v>1.011927992522515</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.976507597183695</v>
+        <v>1.016914598313446</v>
       </c>
       <c r="D15">
-        <v>1.018892460616325</v>
+        <v>1.029687111238199</v>
       </c>
       <c r="E15">
-        <v>0.9876778999465974</v>
+        <v>1.018477800708611</v>
       </c>
       <c r="F15">
-        <v>0.9821198310654968</v>
+        <v>1.028440225998844</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040535791781399</v>
+        <v>1.033213789381474</v>
       </c>
       <c r="J15">
-        <v>1.006734202719372</v>
+        <v>1.023585155453195</v>
       </c>
       <c r="K15">
-        <v>1.033396676662195</v>
+        <v>1.033261887238586</v>
       </c>
       <c r="L15">
-        <v>1.002762751775766</v>
+        <v>1.022095010447059</v>
       </c>
       <c r="M15">
-        <v>0.9973131536660937</v>
+        <v>1.032019671542989</v>
       </c>
       <c r="N15">
-        <v>1.00624242527917</v>
+        <v>1.011944364172388</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9791998086925726</v>
+        <v>1.017424063635979</v>
       </c>
       <c r="D16">
-        <v>1.020493093789053</v>
+        <v>1.029989412615172</v>
       </c>
       <c r="E16">
-        <v>0.9897560130566704</v>
+        <v>1.018905808946487</v>
       </c>
       <c r="F16">
-        <v>0.9854494876226096</v>
+        <v>1.029112741930577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041379003731006</v>
+        <v>1.033329376134893</v>
       </c>
       <c r="J16">
-        <v>1.008184185389892</v>
+        <v>1.023871201687279</v>
       </c>
       <c r="K16">
-        <v>1.034466320128591</v>
+        <v>1.033448484696423</v>
       </c>
       <c r="L16">
-        <v>1.004275492544348</v>
+        <v>1.022405374374481</v>
       </c>
       <c r="M16">
-        <v>1.000049054636054</v>
+        <v>1.032574981795633</v>
       </c>
       <c r="N16">
-        <v>1.006727416964294</v>
+        <v>1.012039623158428</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9808682677519316</v>
+        <v>1.017743795604107</v>
       </c>
       <c r="D17">
-        <v>1.021486290746026</v>
+        <v>1.030179067435474</v>
       </c>
       <c r="E17">
-        <v>0.991046314017502</v>
+        <v>1.019174558474987</v>
       </c>
       <c r="F17">
-        <v>0.9875123693948904</v>
+        <v>1.029534811021968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041898288999207</v>
+        <v>1.033401467883278</v>
       </c>
       <c r="J17">
-        <v>1.009082035720376</v>
+        <v>1.024050575548761</v>
       </c>
       <c r="K17">
-        <v>1.035127791360247</v>
+        <v>1.03356532012501</v>
       </c>
       <c r="L17">
-        <v>1.005213176469502</v>
+        <v>1.022600103918358</v>
       </c>
       <c r="M17">
-        <v>1.001742953023908</v>
+        <v>1.032923338574036</v>
       </c>
       <c r="N17">
-        <v>1.007027724120545</v>
+        <v>1.012099348911982</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9818343194659354</v>
+        <v>1.017930346292414</v>
       </c>
       <c r="D18">
-        <v>1.022061771595775</v>
+        <v>1.030289699808542</v>
       </c>
       <c r="E18">
-        <v>0.99179426364145</v>
+        <v>1.019331412764037</v>
       </c>
       <c r="F18">
-        <v>0.9887065960095897</v>
+        <v>1.029781074980558</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042197760967521</v>
+        <v>1.033443368787779</v>
       </c>
       <c r="J18">
-        <v>1.009601617014711</v>
+        <v>1.024155180999368</v>
       </c>
       <c r="K18">
-        <v>1.035510254556057</v>
+        <v>1.033633391394936</v>
       </c>
       <c r="L18">
-        <v>1.005756158185517</v>
+        <v>1.022713702731971</v>
       </c>
       <c r="M18">
-        <v>1.002723157964953</v>
+        <v>1.0331265380735</v>
       </c>
       <c r="N18">
-        <v>1.007201507050688</v>
+        <v>1.012134175832426</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9821625251121057</v>
+        <v>1.017993964787981</v>
       </c>
       <c r="D19">
-        <v>1.022257351979076</v>
+        <v>1.030327424217143</v>
       </c>
       <c r="E19">
-        <v>0.9920485148679873</v>
+        <v>1.019384912466271</v>
       </c>
       <c r="F19">
-        <v>0.9891122901991249</v>
+        <v>1.029865057868785</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042299298475702</v>
+        <v>1.033457630619243</v>
       </c>
       <c r="J19">
-        <v>1.009778090500197</v>
+        <v>1.02419084528248</v>
       </c>
       <c r="K19">
-        <v>1.035640099708745</v>
+        <v>1.033656588866708</v>
       </c>
       <c r="L19">
-        <v>1.005940638596219</v>
+        <v>1.02275243973204</v>
       </c>
       <c r="M19">
-        <v>1.003056075419279</v>
+        <v>1.033195825335606</v>
       </c>
       <c r="N19">
-        <v>1.007260531024118</v>
+        <v>1.012146049187464</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9806899996109658</v>
+        <v>1.017709485542025</v>
       </c>
       <c r="D20">
-        <v>1.021380128279861</v>
+        <v>1.030158718228481</v>
       </c>
       <c r="E20">
-        <v>0.9909083615300989</v>
+        <v>1.019145714124626</v>
       </c>
       <c r="F20">
-        <v>0.9872919799974545</v>
+        <v>1.029489518909281</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041842929405517</v>
+        <v>1.033393748526627</v>
       </c>
       <c r="J20">
-        <v>1.008986133011893</v>
+        <v>1.0240313325221</v>
       </c>
       <c r="K20">
-        <v>1.035057170752542</v>
+        <v>1.033552792730684</v>
       </c>
       <c r="L20">
-        <v>1.005112982759143</v>
+        <v>1.022579209580032</v>
       </c>
       <c r="M20">
-        <v>1.001562026858478</v>
+        <v>1.032885962264046</v>
       </c>
       <c r="N20">
-        <v>1.006995647523356</v>
+        <v>1.012092941945941</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9758175734207545</v>
+        <v>1.016785282450386</v>
       </c>
       <c r="D21">
-        <v>1.018482621431997</v>
+        <v>1.029610359473038</v>
       </c>
       <c r="E21">
-        <v>0.9871460418414798</v>
+        <v>1.018369203709424</v>
       </c>
       <c r="F21">
-        <v>0.9812662108005837</v>
+        <v>1.02826952612033</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040318662186243</v>
+        <v>1.033184312179342</v>
       </c>
       <c r="J21">
-        <v>1.006362338957278</v>
+        <v>1.023512504967284</v>
       </c>
       <c r="K21">
-        <v>1.033122096019109</v>
+        <v>1.033214440745427</v>
       </c>
       <c r="L21">
-        <v>1.002375098180496</v>
+        <v>1.022016216582366</v>
       </c>
       <c r="M21">
-        <v>0.9966114101032769</v>
+        <v>1.031878673586957</v>
       </c>
       <c r="N21">
-        <v>1.006118042490974</v>
+        <v>1.011920167299077</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9726858561561187</v>
+        <v>1.016204717171612</v>
       </c>
       <c r="D22">
-        <v>1.016624734358627</v>
+        <v>1.029265686403985</v>
       </c>
       <c r="E22">
-        <v>0.9847360789260886</v>
+        <v>1.017881868031252</v>
       </c>
       <c r="F22">
-        <v>0.9773907792876766</v>
+        <v>1.027503177590158</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039328282624578</v>
+        <v>1.033051294036037</v>
       </c>
       <c r="J22">
-        <v>1.004673533927785</v>
+        <v>1.023186121748908</v>
       </c>
       <c r="K22">
-        <v>1.031873892784476</v>
+        <v>1.033001021032264</v>
       </c>
       <c r="L22">
-        <v>1.000616105219813</v>
+        <v>1.021662396007836</v>
       </c>
       <c r="M22">
-        <v>0.9934238405282172</v>
+        <v>1.031245436478141</v>
       </c>
       <c r="N22">
-        <v>1.005553160226136</v>
+        <v>1.011811448619588</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9743527064906731</v>
+        <v>1.016512436264021</v>
       </c>
       <c r="D23">
-        <v>1.017613136995314</v>
+        <v>1.0294483938644</v>
       </c>
       <c r="E23">
-        <v>0.9860179819138705</v>
+        <v>1.018140129250303</v>
       </c>
       <c r="F23">
-        <v>0.9794537264045033</v>
+        <v>1.027909365969772</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039856397285884</v>
+        <v>1.033121935975828</v>
       </c>
       <c r="J23">
-        <v>1.005572610908089</v>
+        <v>1.023359159985872</v>
       </c>
       <c r="K23">
-        <v>1.03253864239367</v>
+        <v>1.033114223344054</v>
       </c>
       <c r="L23">
-        <v>1.001552241174075</v>
+        <v>1.021849947863042</v>
       </c>
       <c r="M23">
-        <v>0.9951209601308845</v>
+        <v>1.03158111911496</v>
       </c>
       <c r="N23">
-        <v>1.005853889446679</v>
+        <v>1.011869090702142</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9807705733097918</v>
+        <v>1.017724988607972</v>
       </c>
       <c r="D24">
-        <v>1.021428110361359</v>
+        <v>1.030167913128764</v>
       </c>
       <c r="E24">
-        <v>0.990970710700103</v>
+        <v>1.019158747344721</v>
       </c>
       <c r="F24">
-        <v>0.9873915922881418</v>
+        <v>1.029509984223796</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041867954574022</v>
+        <v>1.033397237032063</v>
       </c>
       <c r="J24">
-        <v>1.009029480027801</v>
+        <v>1.02404002768034</v>
       </c>
       <c r="K24">
-        <v>1.035089091541322</v>
+        <v>1.033558453558567</v>
       </c>
       <c r="L24">
-        <v>1.005158268181196</v>
+        <v>1.022588650781703</v>
       </c>
       <c r="M24">
-        <v>1.001643803715726</v>
+        <v>1.032902850982242</v>
       </c>
       <c r="N24">
-        <v>1.007010145818312</v>
+        <v>1.012095837009364</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9879400948309564</v>
+        <v>1.019134297203413</v>
       </c>
       <c r="D25">
-        <v>1.025705459940799</v>
+        <v>1.031003257935918</v>
       </c>
       <c r="E25">
-        <v>0.9965363053907159</v>
+        <v>1.020344605376579</v>
       </c>
       <c r="F25">
-        <v>0.9962516898808181</v>
+        <v>1.031370477584109</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044068687504565</v>
+        <v>1.033710861211819</v>
       </c>
       <c r="J25">
-        <v>1.012880252583929</v>
+        <v>1.024829337160908</v>
       </c>
       <c r="K25">
-        <v>1.037917419396082</v>
+        <v>1.034070938716807</v>
       </c>
       <c r="L25">
-        <v>1.00918862978027</v>
+        <v>1.023446512127201</v>
       </c>
       <c r="M25">
-        <v>1.008908473557835</v>
+        <v>1.034436992977851</v>
       </c>
       <c r="N25">
-        <v>1.008298021188245</v>
+        <v>1.012358565854002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020260089553636</v>
+        <v>0.993453339737372</v>
       </c>
       <c r="D2">
-        <v>1.031669768852508</v>
+        <v>1.02900390825904</v>
       </c>
       <c r="E2">
-        <v>1.021293454059137</v>
+        <v>1.000840644733977</v>
       </c>
       <c r="F2">
-        <v>1.032856848201286</v>
+        <v>1.003061619858724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033956264058147</v>
+        <v>1.045722103446697</v>
       </c>
       <c r="J2">
-        <v>1.025458205927374</v>
+        <v>1.015831639141476</v>
       </c>
       <c r="K2">
-        <v>1.034477217507755</v>
+        <v>1.040073436182425</v>
       </c>
       <c r="L2">
-        <v>1.024131211497256</v>
+        <v>1.012288280450845</v>
       </c>
       <c r="M2">
-        <v>1.035660871638634</v>
+        <v>1.014478465610189</v>
       </c>
       <c r="N2">
-        <v>1.012567783118517</v>
+        <v>1.009284903635343</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021078495310792</v>
+        <v>0.9973461139980691</v>
       </c>
       <c r="D3">
-        <v>1.032153822579851</v>
+        <v>1.031336704832868</v>
       </c>
       <c r="E3">
-        <v>1.021984120154224</v>
+        <v>1.003893198378971</v>
       </c>
       <c r="F3">
-        <v>1.033937492779029</v>
+        <v>1.007869185252865</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034131683770662</v>
+        <v>1.046866174480741</v>
       </c>
       <c r="J3">
-        <v>1.025914406506355</v>
+        <v>1.017909389011001</v>
       </c>
       <c r="K3">
-        <v>1.034770753390998</v>
+        <v>1.041583732315826</v>
       </c>
       <c r="L3">
-        <v>1.02462861669534</v>
+        <v>1.014476506193921</v>
       </c>
       <c r="M3">
-        <v>1.036549649273495</v>
+        <v>1.018402358870769</v>
       </c>
       <c r="N3">
-        <v>1.012719492610585</v>
+        <v>1.009979502596121</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021608504535737</v>
+        <v>0.9998165875907125</v>
       </c>
       <c r="D4">
-        <v>1.032467076624351</v>
+        <v>1.03281847307812</v>
       </c>
       <c r="E4">
-        <v>1.02243181263032</v>
+        <v>1.005836377309368</v>
       </c>
       <c r="F4">
-        <v>1.034637389854166</v>
+        <v>1.010920209581022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034243908230484</v>
+        <v>1.047581142752213</v>
       </c>
       <c r="J4">
-        <v>1.026209401211766</v>
+        <v>1.019224986240347</v>
       </c>
       <c r="K4">
-        <v>1.034960008678433</v>
+        <v>1.042536308103253</v>
       </c>
       <c r="L4">
-        <v>1.024950581186568</v>
+        <v>1.015864869088819</v>
       </c>
       <c r="M4">
-        <v>1.037124805344475</v>
+        <v>1.02088859998226</v>
       </c>
       <c r="N4">
-        <v>1.012817563630214</v>
+        <v>1.010419224179868</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021831425778745</v>
+        <v>1.000843954937019</v>
       </c>
       <c r="D5">
-        <v>1.032598776161908</v>
+        <v>1.033434923889522</v>
       </c>
       <c r="E5">
-        <v>1.022620208937197</v>
+        <v>1.006645853727686</v>
       </c>
       <c r="F5">
-        <v>1.03493178081192</v>
+        <v>1.012189052333292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034290779278061</v>
+        <v>1.047875764981426</v>
       </c>
       <c r="J5">
-        <v>1.026333368642177</v>
+        <v>1.01977134403697</v>
       </c>
       <c r="K5">
-        <v>1.035039407144898</v>
+        <v>1.04293097808797</v>
       </c>
       <c r="L5">
-        <v>1.025085960233548</v>
+        <v>1.016442120633383</v>
       </c>
       <c r="M5">
-        <v>1.037366613843545</v>
+        <v>1.021921590811344</v>
       </c>
       <c r="N5">
-        <v>1.012858769519752</v>
+        <v>1.010601814288535</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021868861374251</v>
+        <v>1.001015806948837</v>
       </c>
       <c r="D6">
-        <v>1.032620889483885</v>
+        <v>1.03353805263516</v>
       </c>
       <c r="E6">
-        <v>1.022651852388957</v>
+        <v>1.006781338870078</v>
       </c>
       <c r="F6">
-        <v>1.034981219368441</v>
+        <v>1.012401301181832</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034298631042899</v>
+        <v>1.047924887561454</v>
       </c>
       <c r="J6">
-        <v>1.026354180453955</v>
+        <v>1.019862691154312</v>
       </c>
       <c r="K6">
-        <v>1.03505272881888</v>
+        <v>1.042996908523727</v>
       </c>
       <c r="L6">
-        <v>1.025108692413288</v>
+        <v>1.016538672624124</v>
       </c>
       <c r="M6">
-        <v>1.037407215284688</v>
+        <v>1.022094329214021</v>
       </c>
       <c r="N6">
-        <v>1.012865686800209</v>
+        <v>1.010632340635035</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021611482808039</v>
+        <v>0.9998303589310489</v>
       </c>
       <c r="D7">
-        <v>1.032468836372652</v>
+        <v>1.032826735410917</v>
       </c>
       <c r="E7">
-        <v>1.022434329260647</v>
+        <v>1.005847222491476</v>
       </c>
       <c r="F7">
-        <v>1.034641322915604</v>
+        <v>1.010937217522383</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034244535735358</v>
+        <v>1.047585102745291</v>
       </c>
       <c r="J7">
-        <v>1.026211057861907</v>
+        <v>1.019232312860917</v>
       </c>
       <c r="K7">
-        <v>1.034961070252306</v>
+        <v>1.042541604312976</v>
       </c>
       <c r="L7">
-        <v>1.024952390030578</v>
+        <v>1.015872607326668</v>
       </c>
       <c r="M7">
-        <v>1.03712803635194</v>
+        <v>1.020902450361941</v>
       </c>
       <c r="N7">
-        <v>1.012818114316841</v>
+        <v>1.010421672794414</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020536580425482</v>
+        <v>0.9947791733082259</v>
       </c>
       <c r="D8">
-        <v>1.031833347950771</v>
+        <v>1.029798116293725</v>
       </c>
       <c r="E8">
-        <v>1.021526704319336</v>
+        <v>1.001879043630829</v>
       </c>
       <c r="F8">
-        <v>1.033221922457708</v>
+        <v>1.004699052310735</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034015813335729</v>
+        <v>1.04611405979066</v>
       </c>
       <c r="J8">
-        <v>1.0256124213307</v>
+        <v>1.016539912253757</v>
       </c>
       <c r="K8">
-        <v>1.03457655985563</v>
+        <v>1.040589031731858</v>
       </c>
       <c r="L8">
-        <v>1.024299288416359</v>
+        <v>1.013033622095446</v>
       </c>
       <c r="M8">
-        <v>1.035961225763057</v>
+        <v>1.015815745960973</v>
       </c>
       <c r="N8">
-        <v>1.012619073525717</v>
+        <v>1.009521698774148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018645942673253</v>
+        <v>0.9854900415961717</v>
       </c>
       <c r="D9">
-        <v>1.030713912596411</v>
+        <v>1.024242084907861</v>
       </c>
       <c r="E9">
-        <v>1.019933439354176</v>
+        <v>0.9946303874698892</v>
       </c>
       <c r="F9">
-        <v>1.030725756112145</v>
+        <v>0.9932246080316993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033602976434558</v>
+        <v>1.043322646320471</v>
       </c>
       <c r="J9">
-        <v>1.02455608014577</v>
+        <v>1.011565798134693</v>
       </c>
       <c r="K9">
-        <v>1.033893831247065</v>
+        <v>1.036953724844467</v>
       </c>
       <c r="L9">
-        <v>1.023149334774158</v>
+        <v>1.007811187814831</v>
       </c>
       <c r="M9">
-        <v>1.033905635692423</v>
+        <v>1.006428576129145</v>
       </c>
       <c r="N9">
-        <v>1.012267626299466</v>
+        <v>1.00785843227795</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017387938515461</v>
+        <v>0.9790102787649742</v>
       </c>
       <c r="D10">
-        <v>1.029967981180431</v>
+        <v>1.020380329066716</v>
       </c>
       <c r="E10">
-        <v>1.018875450858292</v>
+        <v>0.9896095579495638</v>
       </c>
       <c r="F10">
-        <v>1.029065054659025</v>
+        <v>0.9852151239533665</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033321208931085</v>
+        <v>1.041319853009101</v>
       </c>
       <c r="J10">
-        <v>1.023850927993524</v>
+        <v>1.008082155704582</v>
       </c>
       <c r="K10">
-        <v>1.033435270796361</v>
+        <v>1.034391108534664</v>
       </c>
       <c r="L10">
-        <v>1.022383370303658</v>
+        <v>1.004168983916346</v>
       </c>
       <c r="M10">
-        <v>1.032535615347312</v>
+        <v>0.999856555459641</v>
       </c>
       <c r="N10">
-        <v>1.012032872215588</v>
+        <v>1.00669329035341</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016843800330387</v>
+        <v>0.9761301594112047</v>
       </c>
       <c r="D11">
-        <v>1.029645092072365</v>
+        <v>1.01866826055282</v>
       </c>
       <c r="E11">
-        <v>1.0184183437693</v>
+        <v>0.9873869388560924</v>
       </c>
       <c r="F11">
-        <v>1.028346770932678</v>
+        <v>0.9816529187200785</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033197658057104</v>
+        <v>1.040417073410708</v>
       </c>
       <c r="J11">
-        <v>1.023545382897388</v>
+        <v>1.006530807144175</v>
       </c>
       <c r="K11">
-        <v>1.033235915319168</v>
+        <v>1.033246503824641</v>
       </c>
       <c r="L11">
-        <v>1.022051873056894</v>
+        <v>1.002550704539576</v>
       </c>
       <c r="M11">
-        <v>1.03194248010559</v>
+        <v>0.9969293315611956</v>
       </c>
       <c r="N11">
-        <v>1.01193111771959</v>
+        <v>1.006174392593692</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016641772575129</v>
+        <v>0.9750486156500227</v>
       </c>
       <c r="D12">
-        <v>1.029525174130285</v>
+        <v>1.018026101906788</v>
       </c>
       <c r="E12">
-        <v>1.018248707055057</v>
+        <v>0.9865537105269349</v>
       </c>
       <c r="F12">
-        <v>1.028080090919585</v>
+        <v>0.9803148314081864</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033151534576688</v>
+        <v>1.040076224273729</v>
       </c>
       <c r="J12">
-        <v>1.023431859381655</v>
+        <v>1.005947832508783</v>
       </c>
       <c r="K12">
-        <v>1.03316174742907</v>
+        <v>1.032815911363782</v>
       </c>
       <c r="L12">
-        <v>1.021928766991058</v>
+        <v>1.001943135224905</v>
       </c>
       <c r="M12">
-        <v>1.031722177938802</v>
+        <v>0.9958291419318069</v>
       </c>
       <c r="N12">
-        <v>1.011893306257583</v>
+        <v>1.005979395973152</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016685104147182</v>
+        <v>0.9752811512526646</v>
       </c>
       <c r="D13">
-        <v>1.029550896117388</v>
+        <v>1.018164132357707</v>
       </c>
       <c r="E13">
-        <v>1.01828508774678</v>
+        <v>0.9867327928426649</v>
       </c>
       <c r="F13">
-        <v>1.028137289130873</v>
+        <v>0.9806025444977471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033161438669584</v>
+        <v>1.040149590137557</v>
       </c>
       <c r="J13">
-        <v>1.023456211923253</v>
+        <v>1.006073192140926</v>
       </c>
       <c r="K13">
-        <v>1.033177662031951</v>
+        <v>1.032908523894913</v>
       </c>
       <c r="L13">
-        <v>1.021955172429884</v>
+        <v>1.002073758325061</v>
       </c>
       <c r="M13">
-        <v>1.031769432825297</v>
+        <v>0.9960657304067911</v>
       </c>
       <c r="N13">
-        <v>1.011901417631363</v>
+        <v>1.006021327024187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016827098821582</v>
+        <v>0.9760410015728087</v>
       </c>
       <c r="D14">
-        <v>1.029635179251483</v>
+        <v>1.018615307758244</v>
       </c>
       <c r="E14">
-        <v>1.018404318410682</v>
+        <v>0.987318222084889</v>
       </c>
       <c r="F14">
-        <v>1.02832472457563</v>
+        <v>0.9815426212864322</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033193850187664</v>
+        <v>1.040389012301387</v>
       </c>
       <c r="J14">
-        <v>1.023535999623687</v>
+        <v>1.006482757397472</v>
       </c>
       <c r="K14">
-        <v>1.033229786986614</v>
+        <v>1.033211022881204</v>
       </c>
       <c r="L14">
-        <v>1.022041696518213</v>
+        <v>1.00250061631193</v>
       </c>
       <c r="M14">
-        <v>1.031924269556072</v>
+        <v>0.9968386563458292</v>
       </c>
       <c r="N14">
-        <v>1.011927992522515</v>
+        <v>1.006158320675901</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016914598313446</v>
+        <v>0.976507597183694</v>
       </c>
       <c r="D15">
-        <v>1.029687111238199</v>
+        <v>1.018892460616325</v>
       </c>
       <c r="E15">
-        <v>1.018477800708611</v>
+        <v>0.9876778999465959</v>
       </c>
       <c r="F15">
-        <v>1.028440225998844</v>
+        <v>0.9821198310654956</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033213789381474</v>
+        <v>1.040535791781399</v>
       </c>
       <c r="J15">
-        <v>1.023585155453195</v>
+        <v>1.00673420271937</v>
       </c>
       <c r="K15">
-        <v>1.033261887238586</v>
+        <v>1.033396676662195</v>
       </c>
       <c r="L15">
-        <v>1.022095010447059</v>
+        <v>1.002762751775765</v>
       </c>
       <c r="M15">
-        <v>1.032019671542989</v>
+        <v>0.9973131536660929</v>
       </c>
       <c r="N15">
-        <v>1.011944364172388</v>
+        <v>1.00624242527917</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017424063635979</v>
+        <v>0.9791998086925724</v>
       </c>
       <c r="D16">
-        <v>1.029989412615172</v>
+        <v>1.020493093789053</v>
       </c>
       <c r="E16">
-        <v>1.018905808946487</v>
+        <v>0.9897560130566705</v>
       </c>
       <c r="F16">
-        <v>1.029112741930577</v>
+        <v>0.9854494876226098</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033329376134893</v>
+        <v>1.041379003731006</v>
       </c>
       <c r="J16">
-        <v>1.023871201687279</v>
+        <v>1.008184185389892</v>
       </c>
       <c r="K16">
-        <v>1.033448484696423</v>
+        <v>1.034466320128591</v>
       </c>
       <c r="L16">
-        <v>1.022405374374481</v>
+        <v>1.004275492544347</v>
       </c>
       <c r="M16">
-        <v>1.032574981795633</v>
+        <v>1.000049054636054</v>
       </c>
       <c r="N16">
-        <v>1.012039623158428</v>
+        <v>1.006727416964294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017743795604107</v>
+        <v>0.9808682677519313</v>
       </c>
       <c r="D17">
-        <v>1.030179067435474</v>
+        <v>1.021486290746026</v>
       </c>
       <c r="E17">
-        <v>1.019174558474987</v>
+        <v>0.9910463140175014</v>
       </c>
       <c r="F17">
-        <v>1.029534811021968</v>
+        <v>0.9875123693948902</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033401467883278</v>
+        <v>1.041898288999207</v>
       </c>
       <c r="J17">
-        <v>1.024050575548761</v>
+        <v>1.009082035720375</v>
       </c>
       <c r="K17">
-        <v>1.03356532012501</v>
+        <v>1.035127791360247</v>
       </c>
       <c r="L17">
-        <v>1.022600103918358</v>
+        <v>1.005213176469501</v>
       </c>
       <c r="M17">
-        <v>1.032923338574036</v>
+        <v>1.001742953023908</v>
       </c>
       <c r="N17">
-        <v>1.012099348911982</v>
+        <v>1.007027724120545</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017930346292414</v>
+        <v>0.9818343194659346</v>
       </c>
       <c r="D18">
-        <v>1.030289699808542</v>
+        <v>1.022061771595774</v>
       </c>
       <c r="E18">
-        <v>1.019331412764037</v>
+        <v>0.9917942636414491</v>
       </c>
       <c r="F18">
-        <v>1.029781074980558</v>
+        <v>0.9887065960095888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033443368787779</v>
+        <v>1.04219776096752</v>
       </c>
       <c r="J18">
-        <v>1.024155180999368</v>
+        <v>1.009601617014711</v>
       </c>
       <c r="K18">
-        <v>1.033633391394936</v>
+        <v>1.035510254556056</v>
       </c>
       <c r="L18">
-        <v>1.022713702731971</v>
+        <v>1.005756158185516</v>
       </c>
       <c r="M18">
-        <v>1.0331265380735</v>
+        <v>1.002723157964952</v>
       </c>
       <c r="N18">
-        <v>1.012134175832426</v>
+        <v>1.007201507050688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017993964787981</v>
+        <v>0.9821625251121054</v>
       </c>
       <c r="D19">
-        <v>1.030327424217143</v>
+        <v>1.022257351979076</v>
       </c>
       <c r="E19">
-        <v>1.019384912466271</v>
+        <v>0.9920485148679872</v>
       </c>
       <c r="F19">
-        <v>1.029865057868785</v>
+        <v>0.9891122901991247</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033457630619243</v>
+        <v>1.042299298475702</v>
       </c>
       <c r="J19">
-        <v>1.02419084528248</v>
+        <v>1.009778090500197</v>
       </c>
       <c r="K19">
-        <v>1.033656588866708</v>
+        <v>1.035640099708745</v>
       </c>
       <c r="L19">
-        <v>1.02275243973204</v>
+        <v>1.005940638596219</v>
       </c>
       <c r="M19">
-        <v>1.033195825335606</v>
+        <v>1.003056075419279</v>
       </c>
       <c r="N19">
-        <v>1.012146049187464</v>
+        <v>1.007260531024118</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017709485542025</v>
+        <v>0.9806899996109655</v>
       </c>
       <c r="D20">
-        <v>1.030158718228481</v>
+        <v>1.021380128279861</v>
       </c>
       <c r="E20">
-        <v>1.019145714124626</v>
+        <v>0.9909083615300984</v>
       </c>
       <c r="F20">
-        <v>1.029489518909281</v>
+        <v>0.987291979997454</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033393748526627</v>
+        <v>1.041842929405517</v>
       </c>
       <c r="J20">
-        <v>1.0240313325221</v>
+        <v>1.008986133011893</v>
       </c>
       <c r="K20">
-        <v>1.033552792730684</v>
+        <v>1.035057170752542</v>
       </c>
       <c r="L20">
-        <v>1.022579209580032</v>
+        <v>1.005112982759143</v>
       </c>
       <c r="M20">
-        <v>1.032885962264046</v>
+        <v>1.001562026858478</v>
       </c>
       <c r="N20">
-        <v>1.012092941945941</v>
+        <v>1.006995647523356</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016785282450386</v>
+        <v>0.9758175734207536</v>
       </c>
       <c r="D21">
-        <v>1.029610359473038</v>
+        <v>1.018482621431997</v>
       </c>
       <c r="E21">
-        <v>1.018369203709424</v>
+        <v>0.9871460418414787</v>
       </c>
       <c r="F21">
-        <v>1.02826952612033</v>
+        <v>0.9812662108005823</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033184312179342</v>
+        <v>1.040318662186243</v>
       </c>
       <c r="J21">
-        <v>1.023512504967284</v>
+        <v>1.006362338957277</v>
       </c>
       <c r="K21">
-        <v>1.033214440745427</v>
+        <v>1.033122096019109</v>
       </c>
       <c r="L21">
-        <v>1.022016216582366</v>
+        <v>1.002375098180495</v>
       </c>
       <c r="M21">
-        <v>1.031878673586957</v>
+        <v>0.9966114101032756</v>
       </c>
       <c r="N21">
-        <v>1.011920167299077</v>
+        <v>1.006118042490973</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016204717171612</v>
+        <v>0.9726858561561187</v>
       </c>
       <c r="D22">
-        <v>1.029265686403985</v>
+        <v>1.016624734358627</v>
       </c>
       <c r="E22">
-        <v>1.017881868031252</v>
+        <v>0.9847360789260887</v>
       </c>
       <c r="F22">
-        <v>1.027503177590158</v>
+        <v>0.9773907792876766</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033051294036037</v>
+        <v>1.039328282624578</v>
       </c>
       <c r="J22">
-        <v>1.023186121748908</v>
+        <v>1.004673533927784</v>
       </c>
       <c r="K22">
-        <v>1.033001021032264</v>
+        <v>1.031873892784475</v>
       </c>
       <c r="L22">
-        <v>1.021662396007836</v>
+        <v>1.000616105219813</v>
       </c>
       <c r="M22">
-        <v>1.031245436478141</v>
+        <v>0.9934238405282171</v>
       </c>
       <c r="N22">
-        <v>1.011811448619588</v>
+        <v>1.005553160226135</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016512436264021</v>
+        <v>0.9743527064906726</v>
       </c>
       <c r="D23">
-        <v>1.0294483938644</v>
+        <v>1.017613136995314</v>
       </c>
       <c r="E23">
-        <v>1.018140129250303</v>
+        <v>0.9860179819138696</v>
       </c>
       <c r="F23">
-        <v>1.027909365969772</v>
+        <v>0.9794537264045028</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033121935975828</v>
+        <v>1.039856397285883</v>
       </c>
       <c r="J23">
-        <v>1.023359159985872</v>
+        <v>1.005572610908088</v>
       </c>
       <c r="K23">
-        <v>1.033114223344054</v>
+        <v>1.03253864239367</v>
       </c>
       <c r="L23">
-        <v>1.021849947863042</v>
+        <v>1.001552241174074</v>
       </c>
       <c r="M23">
-        <v>1.03158111911496</v>
+        <v>0.9951209601308839</v>
       </c>
       <c r="N23">
-        <v>1.011869090702142</v>
+        <v>1.005853889446679</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017724988607972</v>
+        <v>0.9807705733097913</v>
       </c>
       <c r="D24">
-        <v>1.030167913128764</v>
+        <v>1.021428110361359</v>
       </c>
       <c r="E24">
-        <v>1.019158747344721</v>
+        <v>0.9909707107001022</v>
       </c>
       <c r="F24">
-        <v>1.029509984223796</v>
+        <v>0.9873915922881412</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033397237032063</v>
+        <v>1.041867954574022</v>
       </c>
       <c r="J24">
-        <v>1.02404002768034</v>
+        <v>1.009029480027801</v>
       </c>
       <c r="K24">
-        <v>1.033558453558567</v>
+        <v>1.035089091541322</v>
       </c>
       <c r="L24">
-        <v>1.022588650781703</v>
+        <v>1.005158268181195</v>
       </c>
       <c r="M24">
-        <v>1.032902850982242</v>
+        <v>1.001643803715726</v>
       </c>
       <c r="N24">
-        <v>1.012095837009364</v>
+        <v>1.007010145818312</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019134297203413</v>
+        <v>0.987940094830956</v>
       </c>
       <c r="D25">
-        <v>1.031003257935918</v>
+        <v>1.025705459940799</v>
       </c>
       <c r="E25">
-        <v>1.020344605376579</v>
+        <v>0.9965363053907154</v>
       </c>
       <c r="F25">
-        <v>1.031370477584109</v>
+        <v>0.9962516898808181</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033710861211819</v>
+        <v>1.044068687504565</v>
       </c>
       <c r="J25">
-        <v>1.024829337160908</v>
+        <v>1.012880252583928</v>
       </c>
       <c r="K25">
-        <v>1.034070938716807</v>
+        <v>1.037917419396082</v>
       </c>
       <c r="L25">
-        <v>1.023446512127201</v>
+        <v>1.00918862978027</v>
       </c>
       <c r="M25">
-        <v>1.034436992977851</v>
+        <v>1.008908473557835</v>
       </c>
       <c r="N25">
-        <v>1.012358565854002</v>
+        <v>1.008298021188245</v>
       </c>
     </row>
   </sheetData>
